--- a/GATEWAY/A1#111#NAMURSRLXX/Namur srl/GLPX/1.0/accreditamento-checklist_V8.2.1.xlsx
+++ b/GATEWAY/A1#111#NAMURSRLXX/Namur srl/GLPX/1.0/accreditamento-checklist_V8.2.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Namur\FSE\Accreditamento\Ministero\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\it-fse-accreditamento\GATEWAY\A1#111#NAMURSRLXX\Namur srl\GLPX\1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5BD23B-0F03-48D7-BBE2-CEE69A36EF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7784F748-2AF9-4683-A297-179871570E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -4023,7 +4023,7 @@
   <dimension ref="A1:W809"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="I31" sqref="I31:I65"/>
